--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ly86-Cd180.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ly86-Cd180.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cd180</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.635916680058176</v>
+        <v>0.1885623333333333</v>
       </c>
       <c r="H2">
-        <v>0.635916680058176</v>
+        <v>0.5656869999999999</v>
       </c>
       <c r="I2">
-        <v>0.00317992701740865</v>
+        <v>0.0007833014168172616</v>
       </c>
       <c r="J2">
-        <v>0.00317992701740865</v>
+        <v>0.0007834081014554669</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.35952048782216</v>
+        <v>1.9737</v>
       </c>
       <c r="N2">
-        <v>1.35952048782216</v>
+        <v>5.921099999999999</v>
       </c>
       <c r="O2">
-        <v>0.008564383844457304</v>
+        <v>0.01139781017500287</v>
       </c>
       <c r="P2">
-        <v>0.008564383844457304</v>
+        <v>0.01144179882677649</v>
       </c>
       <c r="Q2">
-        <v>0.86454175508694</v>
+        <v>0.3721654772999999</v>
       </c>
       <c r="R2">
-        <v>0.86454175508694</v>
+        <v>3.349489295699999</v>
       </c>
       <c r="S2">
-        <v>2.723411557444794E-05</v>
+        <v>8.927920858693951E-06</v>
       </c>
       <c r="T2">
-        <v>2.723411557444794E-05</v>
+        <v>8.963597896120355E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.635916680058176</v>
+        <v>0.1885623333333333</v>
       </c>
       <c r="H3">
-        <v>0.635916680058176</v>
+        <v>0.5656869999999999</v>
       </c>
       <c r="I3">
-        <v>0.00317992701740865</v>
+        <v>0.0007833014168172616</v>
       </c>
       <c r="J3">
-        <v>0.00317992701740865</v>
+        <v>0.0007834081014554669</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.304493809952045</v>
+        <v>0.7279286666666667</v>
       </c>
       <c r="N3">
-        <v>0.304493809952045</v>
+        <v>2.183786</v>
       </c>
       <c r="O3">
-        <v>0.001918177688420151</v>
+        <v>0.004203674704164569</v>
       </c>
       <c r="P3">
-        <v>0.001918177688420151</v>
+        <v>0.004219898345363348</v>
       </c>
       <c r="Q3">
-        <v>0.1936326927229697</v>
+        <v>0.1372599278868889</v>
       </c>
       <c r="R3">
-        <v>0.1936326927229697</v>
+        <v>1.235339350982</v>
       </c>
       <c r="S3">
-        <v>6.099665055597711E-06</v>
+        <v>3.29274435161099E-06</v>
       </c>
       <c r="T3">
-        <v>6.099665055597711E-06</v>
+        <v>3.305902551076167E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.635916680058176</v>
+        <v>0.1885623333333333</v>
       </c>
       <c r="H4">
-        <v>0.635916680058176</v>
+        <v>0.5656869999999999</v>
       </c>
       <c r="I4">
-        <v>0.00317992701740865</v>
+        <v>0.0007833014168172616</v>
       </c>
       <c r="J4">
-        <v>0.00317992701740865</v>
+        <v>0.0007834081014554669</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>91.42267091010331</v>
+        <v>103.4861973333333</v>
       </c>
       <c r="N4">
-        <v>91.42267091010331</v>
+        <v>310.458592</v>
       </c>
       <c r="O4">
-        <v>0.5759227998203199</v>
+        <v>0.597616675755293</v>
       </c>
       <c r="P4">
-        <v>0.5759227998203199</v>
+        <v>0.5999231145747039</v>
       </c>
       <c r="Q4">
-        <v>58.13720136720408</v>
+        <v>19.51359883696711</v>
       </c>
       <c r="R4">
-        <v>58.13720136720408</v>
+        <v>175.6223895327039</v>
       </c>
       <c r="S4">
-        <v>0.001831392471090269</v>
+        <v>0.000468113988832743</v>
       </c>
       <c r="T4">
-        <v>0.001831392471090269</v>
+        <v>0.0004699846282082194</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.635916680058176</v>
+        <v>0.1885623333333333</v>
       </c>
       <c r="H5">
-        <v>0.635916680058176</v>
+        <v>0.5656869999999999</v>
       </c>
       <c r="I5">
-        <v>0.00317992701740865</v>
+        <v>0.0007833014168172616</v>
       </c>
       <c r="J5">
-        <v>0.00317992701740865</v>
+        <v>0.0007834081014554669</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>64.0251802024296</v>
+        <v>64.97978966666666</v>
       </c>
       <c r="N5">
-        <v>64.0251802024296</v>
+        <v>194.939369</v>
       </c>
       <c r="O5">
-        <v>0.4033306036031463</v>
+        <v>0.37524816731635</v>
       </c>
       <c r="P5">
-        <v>0.4033306036031463</v>
+        <v>0.376696398222754</v>
       </c>
       <c r="Q5">
-        <v>40.71468003445549</v>
+        <v>12.25274075905589</v>
       </c>
       <c r="R5">
-        <v>40.71468003445549</v>
+        <v>110.274666831503</v>
       </c>
       <c r="S5">
-        <v>0.001282561883345384</v>
+        <v>0.0002939324211169778</v>
       </c>
       <c r="T5">
-        <v>0.001282561883345384</v>
+        <v>0.0002951070101568003</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.635916680058176</v>
+        <v>0.1885623333333333</v>
       </c>
       <c r="H6">
-        <v>0.635916680058176</v>
+        <v>0.5656869999999999</v>
       </c>
       <c r="I6">
-        <v>0.00317992701740865</v>
+        <v>0.0007833014168172616</v>
       </c>
       <c r="J6">
-        <v>0.00317992701740865</v>
+        <v>0.0007834081014554669</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.62932514270786</v>
+        <v>1.9972265</v>
       </c>
       <c r="N6">
-        <v>1.62932514270786</v>
+        <v>3.994453</v>
       </c>
       <c r="O6">
-        <v>0.01026403504365625</v>
+        <v>0.01153367204918953</v>
       </c>
       <c r="P6">
-        <v>0.01026403504365625</v>
+        <v>0.007718790030402091</v>
       </c>
       <c r="Q6">
-        <v>1.036115035486096</v>
+        <v>0.3766016890351666</v>
       </c>
       <c r="R6">
-        <v>1.036115035486096</v>
+        <v>2.259610134211</v>
       </c>
       <c r="S6">
-        <v>3.263888234295168E-05</v>
+        <v>9.034341657235808E-06</v>
       </c>
       <c r="T6">
-        <v>3.263888234295168E-05</v>
+        <v>6.046962643250688E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>98.7759471112997</v>
+        <v>0.767846</v>
       </c>
       <c r="H7">
-        <v>98.7759471112997</v>
+        <v>2.303538</v>
       </c>
       <c r="I7">
-        <v>0.4939331090680225</v>
+        <v>0.003189687192904206</v>
       </c>
       <c r="J7">
-        <v>0.4939331090680225</v>
+        <v>0.003190121624167647</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.35952048782216</v>
+        <v>1.9737</v>
       </c>
       <c r="N7">
-        <v>1.35952048782216</v>
+        <v>5.921099999999999</v>
       </c>
       <c r="O7">
-        <v>0.008564383844457304</v>
+        <v>0.01139781017500287</v>
       </c>
       <c r="P7">
-        <v>0.008564383844457304</v>
+        <v>0.01144179882677649</v>
       </c>
       <c r="Q7">
-        <v>134.28792380185</v>
+        <v>1.5154976502</v>
       </c>
       <c r="R7">
-        <v>134.28792380185</v>
+        <v>13.6394788518</v>
       </c>
       <c r="S7">
-        <v>0.00423023273954474</v>
+        <v>3.635544914235991E-05</v>
       </c>
       <c r="T7">
-        <v>0.00423023273954474</v>
+        <v>3.650072985667568E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>98.7759471112997</v>
+        <v>0.767846</v>
       </c>
       <c r="H8">
-        <v>98.7759471112997</v>
+        <v>2.303538</v>
       </c>
       <c r="I8">
-        <v>0.4939331090680225</v>
+        <v>0.003189687192904206</v>
       </c>
       <c r="J8">
-        <v>0.4939331090680225</v>
+        <v>0.003190121624167647</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.304493809952045</v>
+        <v>0.7279286666666667</v>
       </c>
       <c r="N8">
-        <v>0.304493809952045</v>
+        <v>2.183786</v>
       </c>
       <c r="O8">
-        <v>0.001918177688420151</v>
+        <v>0.004203674704164569</v>
       </c>
       <c r="P8">
-        <v>0.001918177688420151</v>
+        <v>0.004219898345363348</v>
       </c>
       <c r="Q8">
-        <v>30.07666446754134</v>
+        <v>0.5589371149853334</v>
       </c>
       <c r="R8">
-        <v>30.07666446754134</v>
+        <v>5.030434034868001</v>
       </c>
       <c r="S8">
-        <v>0.0009474514693862779</v>
+        <v>1.34084073670091E-05</v>
       </c>
       <c r="T8">
-        <v>0.0009474514693862779</v>
+        <v>1.346198896333289E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>98.7759471112997</v>
+        <v>0.767846</v>
       </c>
       <c r="H9">
-        <v>98.7759471112997</v>
+        <v>2.303538</v>
       </c>
       <c r="I9">
-        <v>0.4939331090680225</v>
+        <v>0.003189687192904206</v>
       </c>
       <c r="J9">
-        <v>0.4939331090680225</v>
+        <v>0.003190121624167647</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.42267091010331</v>
+        <v>103.4861973333333</v>
       </c>
       <c r="N9">
-        <v>91.42267091010331</v>
+        <v>310.458592</v>
       </c>
       <c r="O9">
-        <v>0.5759227998203199</v>
+        <v>0.597616675755293</v>
       </c>
       <c r="P9">
-        <v>0.5759227998203199</v>
+        <v>0.5999231145747039</v>
       </c>
       <c r="Q9">
-        <v>9030.360906590122</v>
+        <v>79.46146267761065</v>
       </c>
       <c r="R9">
-        <v>9030.360906590122</v>
+        <v>715.1531640984959</v>
       </c>
       <c r="S9">
-        <v>0.284467339098411</v>
+        <v>0.001906210256922643</v>
       </c>
       <c r="T9">
-        <v>0.284467339098411</v>
+        <v>0.001913827700642768</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>98.7759471112997</v>
+        <v>0.767846</v>
       </c>
       <c r="H10">
-        <v>98.7759471112997</v>
+        <v>2.303538</v>
       </c>
       <c r="I10">
-        <v>0.4939331090680225</v>
+        <v>0.003189687192904206</v>
       </c>
       <c r="J10">
-        <v>0.4939331090680225</v>
+        <v>0.003190121624167647</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>64.0251802024296</v>
+        <v>64.97978966666666</v>
       </c>
       <c r="N10">
-        <v>64.0251802024296</v>
+        <v>194.939369</v>
       </c>
       <c r="O10">
-        <v>0.4033306036031463</v>
+        <v>0.37524816731635</v>
       </c>
       <c r="P10">
-        <v>0.4033306036031463</v>
+        <v>0.376696398222754</v>
       </c>
       <c r="Q10">
-        <v>6324.147813466619</v>
+        <v>49.89447157639133</v>
       </c>
       <c r="R10">
-        <v>6324.147813466619</v>
+        <v>449.050244187522</v>
       </c>
       <c r="S10">
-        <v>0.1992183390199842</v>
+        <v>0.001196924273449736</v>
       </c>
       <c r="T10">
-        <v>0.1992183390199842</v>
+        <v>0.001201707325716475</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>98.7759471112997</v>
+        <v>0.767846</v>
       </c>
       <c r="H11">
-        <v>98.7759471112997</v>
+        <v>2.303538</v>
       </c>
       <c r="I11">
-        <v>0.4939331090680225</v>
+        <v>0.003189687192904206</v>
       </c>
       <c r="J11">
-        <v>0.4939331090680225</v>
+        <v>0.003190121624167647</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.62932514270786</v>
+        <v>1.9972265</v>
       </c>
       <c r="N11">
-        <v>1.62932514270786</v>
+        <v>3.994453</v>
       </c>
       <c r="O11">
-        <v>0.01026403504365625</v>
+        <v>0.01153367204918953</v>
       </c>
       <c r="P11">
-        <v>0.01026403504365625</v>
+        <v>0.007718790030402091</v>
       </c>
       <c r="Q11">
-        <v>160.9381341232224</v>
+        <v>1.533562379119</v>
       </c>
       <c r="R11">
-        <v>160.9381341232224</v>
+        <v>9.201374274714</v>
       </c>
       <c r="S11">
-        <v>0.005069746740696267</v>
+        <v>3.678880602245705E-05</v>
       </c>
       <c r="T11">
-        <v>0.005069746740696267</v>
+        <v>2.462387898839536E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>100.49168523342</v>
+        <v>133.636996</v>
       </c>
       <c r="H12">
-        <v>100.49168523342</v>
+        <v>400.910988</v>
       </c>
       <c r="I12">
-        <v>0.5025127267764764</v>
+        <v>0.5551376378067875</v>
       </c>
       <c r="J12">
-        <v>0.5025127267764764</v>
+        <v>0.5552132468338773</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.35952048782216</v>
+        <v>1.9737</v>
       </c>
       <c r="N12">
-        <v>1.35952048782216</v>
+        <v>5.921099999999999</v>
       </c>
       <c r="O12">
-        <v>0.008564383844457304</v>
+        <v>0.01139781017500287</v>
       </c>
       <c r="P12">
-        <v>0.008564383844457304</v>
+        <v>0.01144179882677649</v>
       </c>
       <c r="Q12">
-        <v>136.6205049306101</v>
+        <v>263.7593390051999</v>
       </c>
       <c r="R12">
-        <v>136.6205049306101</v>
+        <v>2373.8340510468</v>
       </c>
       <c r="S12">
-        <v>0.004303711878838642</v>
+        <v>0.006327353416721262</v>
       </c>
       <c r="T12">
-        <v>0.004303711878838642</v>
+        <v>0.00635263827623462</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>100.49168523342</v>
+        <v>133.636996</v>
       </c>
       <c r="H13">
-        <v>100.49168523342</v>
+        <v>400.910988</v>
       </c>
       <c r="I13">
-        <v>0.5025127267764764</v>
+        <v>0.5551376378067875</v>
       </c>
       <c r="J13">
-        <v>0.5025127267764764</v>
+        <v>0.5552132468338773</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.304493809952045</v>
+        <v>0.7279286666666667</v>
       </c>
       <c r="N13">
-        <v>0.304493809952045</v>
+        <v>2.183786</v>
       </c>
       <c r="O13">
-        <v>0.001918177688420151</v>
+        <v>0.004203674704164569</v>
       </c>
       <c r="P13">
-        <v>0.001918177688420151</v>
+        <v>0.004219898345363348</v>
       </c>
       <c r="Q13">
-        <v>30.59909610522572</v>
+        <v>97.27820031561865</v>
       </c>
       <c r="R13">
-        <v>30.59909610522572</v>
+        <v>875.5038028405679</v>
       </c>
       <c r="S13">
-        <v>0.0009639087006498085</v>
+        <v>0.002333618045378065</v>
       </c>
       <c r="T13">
-        <v>0.0009639087006498085</v>
+        <v>0.002342943461638091</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100.49168523342</v>
+        <v>133.636996</v>
       </c>
       <c r="H14">
-        <v>100.49168523342</v>
+        <v>400.910988</v>
       </c>
       <c r="I14">
-        <v>0.5025127267764764</v>
+        <v>0.5551376378067875</v>
       </c>
       <c r="J14">
-        <v>0.5025127267764764</v>
+        <v>0.5552132468338773</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>91.42267091010331</v>
+        <v>103.4861973333333</v>
       </c>
       <c r="N14">
-        <v>91.42267091010331</v>
+        <v>310.458592</v>
       </c>
       <c r="O14">
-        <v>0.5759227998203199</v>
+        <v>0.597616675755293</v>
       </c>
       <c r="P14">
-        <v>0.5759227998203199</v>
+        <v>0.5999231145747039</v>
       </c>
       <c r="Q14">
-        <v>9187.218268296645</v>
+        <v>13829.58453908987</v>
       </c>
       <c r="R14">
-        <v>9187.218268296645</v>
+        <v>124466.2608518089</v>
       </c>
       <c r="S14">
-        <v>0.2894085365504517</v>
+        <v>0.3317595096927382</v>
       </c>
       <c r="T14">
-        <v>0.2894085365504517</v>
+        <v>0.3330852602937135</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100.49168523342</v>
+        <v>133.636996</v>
       </c>
       <c r="H15">
-        <v>100.49168523342</v>
+        <v>400.910988</v>
       </c>
       <c r="I15">
-        <v>0.5025127267764764</v>
+        <v>0.5551376378067875</v>
       </c>
       <c r="J15">
-        <v>0.5025127267764764</v>
+        <v>0.5552132468338773</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>64.0251802024296</v>
+        <v>64.97978966666666</v>
       </c>
       <c r="N15">
-        <v>64.0251802024296</v>
+        <v>194.939369</v>
       </c>
       <c r="O15">
-        <v>0.4033306036031463</v>
+        <v>0.37524816731635</v>
       </c>
       <c r="P15">
-        <v>0.4033306036031463</v>
+        <v>0.376696398222754</v>
       </c>
       <c r="Q15">
-        <v>6433.998255915549</v>
+        <v>8683.703891765173</v>
       </c>
       <c r="R15">
-        <v>6433.998255915549</v>
+        <v>78153.33502588657</v>
       </c>
       <c r="S15">
-        <v>0.2026787614090192</v>
+        <v>0.2083143811953247</v>
       </c>
       <c r="T15">
-        <v>0.2026787614090192</v>
+        <v>0.2091468303278825</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100.49168523342</v>
+        <v>133.636996</v>
       </c>
       <c r="H16">
-        <v>100.49168523342</v>
+        <v>400.910988</v>
       </c>
       <c r="I16">
-        <v>0.5025127267764764</v>
+        <v>0.5551376378067875</v>
       </c>
       <c r="J16">
-        <v>0.5025127267764764</v>
+        <v>0.5552132468338773</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.62932514270786</v>
+        <v>1.9972265</v>
       </c>
       <c r="N16">
-        <v>1.62932514270786</v>
+        <v>3.994453</v>
       </c>
       <c r="O16">
-        <v>0.01026403504365625</v>
+        <v>0.01153367204918953</v>
       </c>
       <c r="P16">
-        <v>0.01026403504365625</v>
+        <v>0.007718790030402091</v>
       </c>
       <c r="Q16">
-        <v>163.7336293838954</v>
+        <v>266.9033497915939</v>
       </c>
       <c r="R16">
-        <v>163.7336293838954</v>
+        <v>1601.420098749564</v>
       </c>
       <c r="S16">
-        <v>0.005157808237517012</v>
+        <v>0.006402775456625247</v>
       </c>
       <c r="T16">
-        <v>0.005157808237517012</v>
+        <v>0.004285574474408508</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0748393397418764</v>
+        <v>106.0359293333333</v>
       </c>
       <c r="H17">
-        <v>0.0748393397418764</v>
+        <v>318.107788</v>
       </c>
       <c r="I17">
-        <v>0.0003742371380924401</v>
+        <v>0.4404808331126668</v>
       </c>
       <c r="J17">
-        <v>0.0003742371380924401</v>
+        <v>0.4405408260314949</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.35952048782216</v>
+        <v>1.9737</v>
       </c>
       <c r="N17">
-        <v>1.35952048782216</v>
+        <v>5.921099999999999</v>
       </c>
       <c r="O17">
-        <v>0.008564383844457304</v>
+        <v>0.01139781017500287</v>
       </c>
       <c r="P17">
-        <v>0.008564383844457304</v>
+        <v>0.01144179882677649</v>
       </c>
       <c r="Q17">
-        <v>0.1017456156741642</v>
+        <v>209.2831137252</v>
       </c>
       <c r="R17">
-        <v>0.1017456156741642</v>
+        <v>1883.5480235268</v>
       </c>
       <c r="S17">
-        <v>3.205110499474832E-06</v>
+        <v>0.005020516921545296</v>
       </c>
       <c r="T17">
-        <v>3.205110499474832E-06</v>
+        <v>0.005040579506434302</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0748393397418764</v>
+        <v>106.0359293333333</v>
       </c>
       <c r="H18">
-        <v>0.0748393397418764</v>
+        <v>318.107788</v>
       </c>
       <c r="I18">
-        <v>0.0003742371380924401</v>
+        <v>0.4404808331126668</v>
       </c>
       <c r="J18">
-        <v>0.0003742371380924401</v>
+        <v>0.4405408260314949</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.304493809952045</v>
+        <v>0.7279286666666667</v>
       </c>
       <c r="N18">
-        <v>0.304493809952045</v>
+        <v>2.183786</v>
       </c>
       <c r="O18">
-        <v>0.001918177688420151</v>
+        <v>0.004203674704164569</v>
       </c>
       <c r="P18">
-        <v>0.001918177688420151</v>
+        <v>0.004219898345363348</v>
       </c>
       <c r="Q18">
-        <v>0.02278811569229944</v>
+        <v>77.18659265837422</v>
       </c>
       <c r="R18">
-        <v>0.02278811569229944</v>
+        <v>694.679333925368</v>
       </c>
       <c r="S18">
-        <v>7.178533284671297E-07</v>
+        <v>0.001851638135825052</v>
       </c>
       <c r="T18">
-        <v>7.178533284671297E-07</v>
+        <v>0.001859037502835308</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0748393397418764</v>
+        <v>106.0359293333333</v>
       </c>
       <c r="H19">
-        <v>0.0748393397418764</v>
+        <v>318.107788</v>
       </c>
       <c r="I19">
-        <v>0.0003742371380924401</v>
+        <v>0.4404808331126668</v>
       </c>
       <c r="J19">
-        <v>0.0003742371380924401</v>
+        <v>0.4405408260314949</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>91.42267091010331</v>
+        <v>103.4861973333333</v>
       </c>
       <c r="N19">
-        <v>91.42267091010331</v>
+        <v>310.458592</v>
       </c>
       <c r="O19">
-        <v>0.5759227998203199</v>
+        <v>0.597616675755293</v>
       </c>
       <c r="P19">
-        <v>0.5759227998203199</v>
+        <v>0.5999231145747039</v>
       </c>
       <c r="Q19">
-        <v>6.842012328350981</v>
+        <v>10973.25510741272</v>
       </c>
       <c r="R19">
-        <v>6.842012328350981</v>
+        <v>98759.29596671449</v>
       </c>
       <c r="S19">
-        <v>0.0002155317003669418</v>
+        <v>0.2632386912187139</v>
       </c>
       <c r="T19">
-        <v>0.0002155317003669418</v>
+        <v>0.2642906244501272</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0748393397418764</v>
+        <v>106.0359293333333</v>
       </c>
       <c r="H20">
-        <v>0.0748393397418764</v>
+        <v>318.107788</v>
       </c>
       <c r="I20">
-        <v>0.0003742371380924401</v>
+        <v>0.4404808331126668</v>
       </c>
       <c r="J20">
-        <v>0.0003742371380924401</v>
+        <v>0.4405408260314949</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>64.0251802024296</v>
+        <v>64.97978966666666</v>
       </c>
       <c r="N20">
-        <v>64.0251802024296</v>
+        <v>194.939369</v>
       </c>
       <c r="O20">
-        <v>0.4033306036031463</v>
+        <v>0.37524816731635</v>
       </c>
       <c r="P20">
-        <v>0.4033306036031463</v>
+        <v>0.376696398222754</v>
       </c>
       <c r="Q20">
-        <v>4.791602213204487</v>
+        <v>6890.19238518953</v>
       </c>
       <c r="R20">
-        <v>4.791602213204487</v>
+        <v>62011.73146670578</v>
       </c>
       <c r="S20">
-        <v>0.0001509412907975379</v>
+        <v>0.1652896253635072</v>
       </c>
       <c r="T20">
-        <v>0.0001509412907975379</v>
+        <v>0.165950142436141</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>106.0359293333333</v>
+      </c>
+      <c r="H21">
+        <v>318.107788</v>
+      </c>
+      <c r="I21">
+        <v>0.4404808331126668</v>
+      </c>
+      <c r="J21">
+        <v>0.4405408260314949</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.9972265</v>
+      </c>
+      <c r="N21">
+        <v>3.994453</v>
+      </c>
+      <c r="O21">
+        <v>0.01153367204918953</v>
+      </c>
+      <c r="P21">
+        <v>0.007718790030402091</v>
+      </c>
+      <c r="Q21">
+        <v>211.7777680166607</v>
+      </c>
+      <c r="R21">
+        <v>1270.666608099964</v>
+      </c>
+      <c r="S21">
+        <v>0.005080361473075283</v>
+      </c>
+      <c r="T21">
+        <v>0.003400442135957004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.09834699999999999</v>
+      </c>
+      <c r="H22">
+        <v>0.196694</v>
+      </c>
+      <c r="I22">
+        <v>0.0004085404708242927</v>
+      </c>
+      <c r="J22">
+        <v>0.0002723974090047706</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.9737</v>
+      </c>
+      <c r="N22">
+        <v>5.921099999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.01139781017500287</v>
+      </c>
+      <c r="P22">
+        <v>0.01144179882677649</v>
+      </c>
+      <c r="Q22">
+        <v>0.1941074739</v>
+      </c>
+      <c r="R22">
+        <v>1.1646448434</v>
+      </c>
+      <c r="S22">
+        <v>4.656466735261588E-06</v>
+      </c>
+      <c r="T22">
+        <v>3.116716354767738E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.09834699999999999</v>
+      </c>
+      <c r="H23">
+        <v>0.196694</v>
+      </c>
+      <c r="I23">
+        <v>0.0004085404708242927</v>
+      </c>
+      <c r="J23">
+        <v>0.0002723974090047706</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.7279286666666667</v>
+      </c>
+      <c r="N23">
+        <v>2.183786</v>
+      </c>
+      <c r="O23">
+        <v>0.004203674704164569</v>
+      </c>
+      <c r="P23">
+        <v>0.004219898345363348</v>
+      </c>
+      <c r="Q23">
+        <v>0.07158960058066666</v>
+      </c>
+      <c r="R23">
+        <v>0.4295376034839999</v>
+      </c>
+      <c r="S23">
+        <v>1.717371242831562E-06</v>
+      </c>
+      <c r="T23">
+        <v>1.149489375540494E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.09834699999999999</v>
+      </c>
+      <c r="H24">
+        <v>0.196694</v>
+      </c>
+      <c r="I24">
+        <v>0.0004085404708242927</v>
+      </c>
+      <c r="J24">
+        <v>0.0002723974090047706</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>103.4861973333333</v>
+      </c>
+      <c r="N24">
+        <v>310.458592</v>
+      </c>
+      <c r="O24">
+        <v>0.597616675755293</v>
+      </c>
+      <c r="P24">
+        <v>0.5999231145747039</v>
+      </c>
+      <c r="Q24">
+        <v>10.17755704914133</v>
+      </c>
+      <c r="R24">
+        <v>61.06534229484799</v>
+      </c>
+      <c r="S24">
+        <v>0.0002441505980855161</v>
+      </c>
+      <c r="T24">
+        <v>0.0001634175020122215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.0748393397418764</v>
-      </c>
-      <c r="H21">
-        <v>0.0748393397418764</v>
-      </c>
-      <c r="I21">
-        <v>0.0003742371380924401</v>
-      </c>
-      <c r="J21">
-        <v>0.0003742371380924401</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.62932514270786</v>
-      </c>
-      <c r="N21">
-        <v>1.62932514270786</v>
-      </c>
-      <c r="O21">
-        <v>0.01026403504365625</v>
-      </c>
-      <c r="P21">
-        <v>0.01026403504365625</v>
-      </c>
-      <c r="Q21">
-        <v>0.1219376179050948</v>
-      </c>
-      <c r="R21">
-        <v>0.1219376179050948</v>
-      </c>
-      <c r="S21">
-        <v>3.841183100018429E-06</v>
-      </c>
-      <c r="T21">
-        <v>3.841183100018429E-06</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.09834699999999999</v>
+      </c>
+      <c r="H25">
+        <v>0.196694</v>
+      </c>
+      <c r="I25">
+        <v>0.0004085404708242927</v>
+      </c>
+      <c r="J25">
+        <v>0.0002723974090047706</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>64.97978966666666</v>
+      </c>
+      <c r="N25">
+        <v>194.939369</v>
+      </c>
+      <c r="O25">
+        <v>0.37524816731635</v>
+      </c>
+      <c r="P25">
+        <v>0.376696398222754</v>
+      </c>
+      <c r="Q25">
+        <v>6.390567374347666</v>
+      </c>
+      <c r="R25">
+        <v>38.343404246086</v>
+      </c>
+      <c r="S25">
+        <v>0.0001533040629513746</v>
+      </c>
+      <c r="T25">
+        <v>0.0001026111228573075</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.09834699999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.196694</v>
+      </c>
+      <c r="I26">
+        <v>0.0004085404708242927</v>
+      </c>
+      <c r="J26">
+        <v>0.0002723974090047706</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.9972265</v>
+      </c>
+      <c r="N26">
+        <v>3.994453</v>
+      </c>
+      <c r="O26">
+        <v>0.01153367204918953</v>
+      </c>
+      <c r="P26">
+        <v>0.007718790030402091</v>
+      </c>
+      <c r="Q26">
+        <v>0.1964212345955</v>
+      </c>
+      <c r="R26">
+        <v>0.7856849383819999</v>
+      </c>
+      <c r="S26">
+        <v>4.711971809308876E-06</v>
+      </c>
+      <c r="T26">
+        <v>2.102578404933384E-06</v>
       </c>
     </row>
   </sheetData>
